--- a/Діаграма Ганта.xlsx
+++ b/Діаграма Ганта.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63EE7D-9B51-499E-BB1C-2C572DC49BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE8F2C-2893-4732-9360-632039F408C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -60,7 +60,25 @@
     <t xml:space="preserve">Опис концепції </t>
   </si>
   <si>
-    <t xml:space="preserve">Підсумки роботи </t>
+    <t>Підсумки розробки етапу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другий етап розробки </t>
+  </si>
+  <si>
+    <t>Вибір стратегії розробки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формування вимог </t>
+  </si>
+  <si>
+    <t>Формування моделі вимог</t>
+  </si>
+  <si>
+    <t>Вибір архітектури</t>
+  </si>
+  <si>
+    <t>Третій етап розробки</t>
   </si>
 </sst>
 </file>
@@ -79,12 +97,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -210,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -225,6 +267,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,6 +418,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E12" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:E12" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:E18" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -660,21 +719,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,22 +747,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="16">
         <v>43799.12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E12" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -711,14 +771,15 @@
         <v>43799.12</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>43799.12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43800.12</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -726,14 +787,15 @@
         <v>43799.12</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>43799.12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43800.12</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -741,14 +803,15 @@
         <v>43799.12</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="0"/>
-        <v>43800.12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43801.120000000003</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -762,57 +825,177 @@
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="19">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="12">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43802.12</v>
+      </c>
+      <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
+        <v>43808.12</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
+        <v>43803</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7"/>
+        <v>43804</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43803</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
+        <v>43806</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13:E17" si="1">SUM(C13:D13)</f>
+        <v>43808</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43808</v>
+      </c>
+      <c r="D14" s="20">
         <v>0</v>
       </c>
+      <c r="E14" s="21">
+        <f t="shared" si="1"/>
+        <v>43808</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16">
+        <v>43808</v>
+      </c>
+      <c r="D15" s="17">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="1"/>
+        <v>43813</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13">
+        <f>SUM(C18:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Діаграма Ганта.xlsx
+++ b/Діаграма Ганта.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE8F2C-2893-4732-9360-632039F408C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B3922-01E0-4910-9BD2-A8AF88580700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Третій етап розробки</t>
+  </si>
+  <si>
+    <t>Легенда</t>
+  </si>
+  <si>
+    <t>початок етапу</t>
+  </si>
+  <si>
+    <t>виконано</t>
+  </si>
+  <si>
+    <t>тимчасово пройобано</t>
+  </si>
+  <si>
+    <t>кінець етапу</t>
   </si>
 </sst>
 </file>
@@ -86,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +143,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -252,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,57 +288,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -334,8 +350,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -345,6 +365,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -394,6 +415,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -408,21 +445,23 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3F3F"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFF3F3F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -437,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B2:E18" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -445,9 +484,9 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BADC2B0A-10CB-402F-84E8-93AD8196D89C}" name="Етап проекту" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B9EC2F11-4CCE-4D09-AB70-FCFB9B86F23C}" name="Дата початку" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2E3A9A0F-830F-4086-8185-E161EBB3A3CC}" name="Тривалість" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BADC2B0A-10CB-402F-84E8-93AD8196D89C}" name="Етап проекту" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B9EC2F11-4CCE-4D09-AB70-FCFB9B86F23C}" name="Дата початку" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2E3A9A0F-830F-4086-8185-E161EBB3A3CC}" name="Тривалість" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{C43FEFDC-AD2F-49F3-9D6F-80738D98932D}" name="Дата завершення" dataDxfId="0">
       <calculatedColumnFormula>SUM(C3:D3)</calculatedColumnFormula>
     </tableColumn>
@@ -722,7 +761,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,6 +770,7 @@
     <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
@@ -746,6 +786,9 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -761,53 +804,65 @@
         <f t="shared" ref="E3:E12" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
+      <c r="G3" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="25">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
+      <c r="G4" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="33">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
+      <c r="G5" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="25">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="22"/>
     </row>
